--- a/アカウント更新・削除_単体テスト.xlsx
+++ b/アカウント更新・削除_単体テスト.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/tanntaitest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/unit-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="216" documentId="13_ncr:1_{A79FEBA2-56B8-4B68-A8E8-7A4AD747AB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74BB9B50-5B01-442C-8159-5FDCED95A0E6}"/>
+  <xr:revisionPtr revIDLastSave="217" documentId="13_ncr:1_{A79FEBA2-56B8-4B68-A8E8-7A4AD747AB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96C8B382-1937-49EA-A041-DF48A5B4BFF0}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="5" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="マイページ画面" sheetId="5" r:id="rId1"/>
@@ -5478,8 +5478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A1A857-B7E4-4351-AD44-8F6DAF254401}">
   <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView topLeftCell="E58" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5490,7 +5490,7 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -5530,7 +5530,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3">
-        <v>45990</v>
+        <v>46015</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5584,8 +5584,8 @@
       <c r="F8" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G8" s="4">
-        <v>45992</v>
+      <c r="G8" s="3">
+        <v>46016</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>109</v>
@@ -5622,8 +5622,8 @@
       <c r="F10" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G10" s="4">
-        <v>45992</v>
+      <c r="G10" s="3">
+        <v>46016</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>109</v>
@@ -5660,8 +5660,8 @@
       <c r="F12" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="G12" s="4">
-        <v>45992</v>
+      <c r="G12" s="3">
+        <v>46016</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>109</v>
@@ -5698,8 +5698,8 @@
       <c r="F14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="4">
-        <v>45992</v>
+      <c r="G14" s="3">
+        <v>46016</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>109</v>
@@ -5736,8 +5736,8 @@
       <c r="F16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="4">
-        <v>45992</v>
+      <c r="G16" s="3">
+        <v>46016</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>109</v>
@@ -5774,8 +5774,8 @@
       <c r="F18" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G18" s="4">
-        <v>45992</v>
+      <c r="G18" s="3">
+        <v>46016</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>109</v>
@@ -5812,8 +5812,8 @@
       <c r="F20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="4">
-        <v>45992</v>
+      <c r="G20" s="3">
+        <v>46016</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>109</v>
@@ -5850,8 +5850,8 @@
       <c r="F22" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G22" s="4">
-        <v>45992</v>
+      <c r="G22" s="3">
+        <v>46016</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>109</v>
@@ -5888,8 +5888,8 @@
       <c r="F24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G24" s="4">
-        <v>45992</v>
+      <c r="G24" s="3">
+        <v>46016</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>109</v>
@@ -5926,8 +5926,8 @@
       <c r="F26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="4">
-        <v>45992</v>
+      <c r="G26" s="3">
+        <v>46016</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>109</v>
@@ -5964,8 +5964,8 @@
       <c r="F28" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G28" s="4">
-        <v>45992</v>
+      <c r="G28" s="3">
+        <v>46016</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>109</v>
@@ -6002,8 +6002,8 @@
       <c r="F30" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G30" s="4">
-        <v>45992</v>
+      <c r="G30" s="3">
+        <v>46016</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>109</v>
@@ -6040,8 +6040,8 @@
       <c r="F32" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G32" s="4">
-        <v>45992</v>
+      <c r="G32" s="3">
+        <v>46016</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>109</v>
@@ -6078,8 +6078,8 @@
       <c r="F34" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G34" s="4">
-        <v>45992</v>
+      <c r="G34" s="3">
+        <v>46016</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>109</v>
@@ -6116,8 +6116,8 @@
       <c r="F36" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="G36" s="4">
-        <v>45992</v>
+      <c r="G36" s="3">
+        <v>46016</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>109</v>
@@ -6154,8 +6154,8 @@
       <c r="F38" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="G38" s="4">
-        <v>45992</v>
+      <c r="G38" s="3">
+        <v>46016</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>109</v>
@@ -6190,8 +6190,8 @@
       <c r="F40" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="G40" s="4">
-        <v>45992</v>
+      <c r="G40" s="3">
+        <v>46016</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>109</v>
@@ -6226,8 +6226,8 @@
       <c r="F42" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="G42" s="4">
-        <v>45992</v>
+      <c r="G42" s="3">
+        <v>46016</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>109</v>
@@ -6262,8 +6262,8 @@
       <c r="F44" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G44" s="4">
-        <v>45992</v>
+      <c r="G44" s="3">
+        <v>46016</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>109</v>
@@ -6298,8 +6298,8 @@
       <c r="F46" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="G46" s="4">
-        <v>45992</v>
+      <c r="G46" s="3">
+        <v>46016</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>109</v>
@@ -6334,8 +6334,8 @@
       <c r="F48" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="G48" s="4">
-        <v>45992</v>
+      <c r="G48" s="3">
+        <v>46016</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>109</v>
@@ -6370,8 +6370,8 @@
       <c r="F50" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G50" s="4">
-        <v>45992</v>
+      <c r="G50" s="3">
+        <v>46016</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>109</v>
@@ -6406,8 +6406,8 @@
       <c r="F52" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="G52" s="4">
-        <v>45992</v>
+      <c r="G52" s="3">
+        <v>46016</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>109</v>
@@ -6442,8 +6442,8 @@
       <c r="F54" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G54" s="4">
-        <v>45992</v>
+      <c r="G54" s="3">
+        <v>46016</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>109</v>
@@ -6478,8 +6478,8 @@
       <c r="F56" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G56" s="4">
-        <v>45992</v>
+      <c r="G56" s="3">
+        <v>46016</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>109</v>
@@ -6514,8 +6514,8 @@
       <c r="F58" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G58" s="4">
-        <v>45992</v>
+      <c r="G58" s="3">
+        <v>46016</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>109</v>
@@ -6550,8 +6550,8 @@
       <c r="F60" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G60" s="4">
-        <v>45992</v>
+      <c r="G60" s="3">
+        <v>46016</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>109</v>
@@ -6588,8 +6588,8 @@
       <c r="F62" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G62" s="4">
-        <v>45992</v>
+      <c r="G62" s="3">
+        <v>46016</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>109</v>
@@ -6624,8 +6624,8 @@
       <c r="F64" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G64" s="4">
-        <v>45992</v>
+      <c r="G64" s="3">
+        <v>46016</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>109</v>
@@ -6639,7 +6639,7 @@
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
+      <c r="G65" s="3"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
     </row>
@@ -6661,7 +6661,7 @@
         <v>94</v>
       </c>
       <c r="G66" s="4">
-        <v>45992</v>
+        <v>46016</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>109</v>
@@ -6696,8 +6696,8 @@
       <c r="F68" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G68" s="4">
-        <v>45992</v>
+      <c r="G68" s="3">
+        <v>46016</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>109</v>
@@ -6734,8 +6734,8 @@
       <c r="F70" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G70" s="4">
-        <v>45992</v>
+      <c r="G70" s="3">
+        <v>46016</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>109</v>
@@ -6772,8 +6772,8 @@
       <c r="F72" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="G72" s="4">
-        <v>45998</v>
+      <c r="G72" s="3">
+        <v>46016</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>109</v>
@@ -6810,8 +6810,8 @@
       <c r="F74" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="G74" s="4">
-        <v>45998</v>
+      <c r="G74" s="3">
+        <v>46016</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>109</v>
@@ -6848,8 +6848,8 @@
       <c r="F76" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="G76" s="4">
-        <v>45998</v>
+      <c r="G76" s="3">
+        <v>46016</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>109</v>
@@ -6886,8 +6886,8 @@
       <c r="F78" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="G78" s="4">
-        <v>45998</v>
+      <c r="G78" s="3">
+        <v>46016</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>109</v>
@@ -6924,8 +6924,8 @@
       <c r="F80" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="G80" s="4">
-        <v>45998</v>
+      <c r="G80" s="3">
+        <v>46016</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>109</v>
@@ -6962,8 +6962,8 @@
       <c r="F82" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="G82" s="4">
-        <v>45998</v>
+      <c r="G82" s="3">
+        <v>46016</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>109</v>
@@ -7000,8 +7000,8 @@
       <c r="F84" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="G84" s="4">
-        <v>45998</v>
+      <c r="G84" s="3">
+        <v>46016</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>109</v>
@@ -7038,8 +7038,8 @@
       <c r="F86" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="G86" s="4">
-        <v>45998</v>
+      <c r="G86" s="3">
+        <v>46016</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>109</v>
@@ -7076,8 +7076,8 @@
       <c r="F88" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="G88" s="4">
-        <v>45992</v>
+      <c r="G88" s="3">
+        <v>46016</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>109</v>
@@ -7114,8 +7114,8 @@
       <c r="F90" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="G90" s="4">
-        <v>45992</v>
+      <c r="G90" s="3">
+        <v>46016</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>109</v>
@@ -7152,8 +7152,8 @@
       <c r="F92" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="G92" s="4">
-        <v>45992</v>
+      <c r="G92" s="3">
+        <v>46016</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>109</v>
@@ -7190,8 +7190,8 @@
       <c r="F94" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="G94" s="4">
-        <v>45992</v>
+      <c r="G94" s="3">
+        <v>46016</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>109</v>
@@ -7228,8 +7228,8 @@
       <c r="F96" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="G96" s="4">
-        <v>45992</v>
+      <c r="G96" s="3">
+        <v>46016</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>109</v>
@@ -7266,8 +7266,8 @@
       <c r="F98" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="G98" s="4">
-        <v>45992</v>
+      <c r="G98" s="3">
+        <v>46016</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>109</v>
@@ -7304,8 +7304,8 @@
       <c r="F100" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="G100" s="4">
-        <v>45992</v>
+      <c r="G100" s="3">
+        <v>46016</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>109</v>
@@ -7342,8 +7342,8 @@
       <c r="F102" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="G102" s="4">
-        <v>45992</v>
+      <c r="G102" s="3">
+        <v>46016</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>109</v>
@@ -7380,8 +7380,8 @@
       <c r="F104" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="G104" s="4">
-        <v>45992</v>
+      <c r="G104" s="3">
+        <v>46016</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>109</v>
@@ -7418,8 +7418,8 @@
       <c r="F106" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="G106" s="4">
-        <v>45992</v>
+      <c r="G106" s="3">
+        <v>46016</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>109</v>
@@ -7456,8 +7456,8 @@
       <c r="F108" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="G108" s="4">
-        <v>45992</v>
+      <c r="G108" s="3">
+        <v>46016</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>109</v>
@@ -7507,8 +7507,8 @@
       <c r="F111" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="G111" s="4">
-        <v>45992</v>
+      <c r="G111" s="3">
+        <v>46016</v>
       </c>
       <c r="H111" s="2" t="s">
         <v>109</v>
@@ -7545,8 +7545,8 @@
       <c r="F113" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="G113" s="4">
-        <v>45992</v>
+      <c r="G113" s="3">
+        <v>46016</v>
       </c>
       <c r="H113" s="2" t="s">
         <v>109</v>
@@ -7583,8 +7583,8 @@
       <c r="F115" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="G115" s="4">
-        <v>45992</v>
+      <c r="G115" s="3">
+        <v>46016</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>109</v>
@@ -7621,8 +7621,8 @@
       <c r="F117" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="G117" s="4">
-        <v>45992</v>
+      <c r="G117" s="3">
+        <v>46016</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>109</v>
@@ -8696,8 +8696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB2A5A5-6081-45A6-AF3A-1B25C5A8823E}">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" topLeftCell="E22" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -8708,7 +8708,7 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -8748,7 +8748,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3">
-        <v>45990</v>
+        <v>46015</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -8803,7 +8803,7 @@
         <v>196</v>
       </c>
       <c r="G8" s="4">
-        <v>45992</v>
+        <v>46016</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>109</v>
@@ -8854,7 +8854,7 @@
         <v>197</v>
       </c>
       <c r="G11" s="4">
-        <v>45992</v>
+        <v>46016</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>109</v>
@@ -8905,7 +8905,7 @@
         <v>198</v>
       </c>
       <c r="G14" s="4">
-        <v>45992</v>
+        <v>46016</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>109</v>
@@ -8956,7 +8956,7 @@
         <v>199</v>
       </c>
       <c r="G17" s="4">
-        <v>45992</v>
+        <v>46016</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>109</v>
@@ -9007,7 +9007,7 @@
         <v>200</v>
       </c>
       <c r="G20" s="4">
-        <v>45992</v>
+        <v>46016</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>109</v>
@@ -9058,7 +9058,7 @@
         <v>201</v>
       </c>
       <c r="G23" s="4">
-        <v>45992</v>
+        <v>46016</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>109</v>
@@ -9109,7 +9109,7 @@
         <v>202</v>
       </c>
       <c r="G26" s="4">
-        <v>45992</v>
+        <v>46016</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>109</v>
@@ -9160,7 +9160,7 @@
         <v>203</v>
       </c>
       <c r="G29" s="4">
-        <v>45992</v>
+        <v>46016</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>109</v>
@@ -9211,7 +9211,7 @@
         <v>204</v>
       </c>
       <c r="G32" s="4">
-        <v>45992</v>
+        <v>46016</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>109</v>
@@ -9262,7 +9262,7 @@
         <v>205</v>
       </c>
       <c r="G35" s="4">
-        <v>45992</v>
+        <v>46016</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>109</v>
@@ -9313,7 +9313,7 @@
         <v>206</v>
       </c>
       <c r="G38" s="4">
-        <v>45992</v>
+        <v>46016</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>109</v>
@@ -9364,7 +9364,7 @@
         <v>207</v>
       </c>
       <c r="G41" s="4">
-        <v>45992</v>
+        <v>46016</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>109</v>
@@ -9415,7 +9415,7 @@
         <v>208</v>
       </c>
       <c r="G44" s="4">
-        <v>45992</v>
+        <v>46016</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>109</v>
@@ -9466,7 +9466,7 @@
         <v>209</v>
       </c>
       <c r="G47" s="4">
-        <v>45992</v>
+        <v>46016</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>109</v>
@@ -9517,7 +9517,7 @@
         <v>210</v>
       </c>
       <c r="G50" s="4">
-        <v>45992</v>
+        <v>46016</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>109</v>
@@ -9570,7 +9570,7 @@
         <v>246</v>
       </c>
       <c r="G53" s="4">
-        <v>45992</v>
+        <v>46016</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>109</v>
@@ -9608,7 +9608,7 @@
         <v>195</v>
       </c>
       <c r="G55" s="4">
-        <v>45992</v>
+        <v>46016</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>109</v>
@@ -9659,7 +9659,7 @@
         <v>261</v>
       </c>
       <c r="G58" s="4">
-        <v>45998</v>
+        <v>46016</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>109</v>
@@ -9696,8 +9696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -9708,7 +9708,7 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -9748,7 +9748,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3">
-        <v>45990</v>
+        <v>46015</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9802,8 +9802,8 @@
       <c r="F8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="4">
-        <v>45992</v>
+      <c r="G8" s="3">
+        <v>46016</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>109</v>
@@ -9840,8 +9840,8 @@
       <c r="F10" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G10" s="4">
-        <v>45992</v>
+      <c r="G10" s="3">
+        <v>46016</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>109</v>
@@ -9878,8 +9878,8 @@
       <c r="F12" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G12" s="4">
-        <v>45992</v>
+      <c r="G12" s="3">
+        <v>46016</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>109</v>
@@ -9916,8 +9916,8 @@
       <c r="F14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="4">
-        <v>45992</v>
+      <c r="G14" s="3">
+        <v>46016</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>109</v>
@@ -9954,8 +9954,8 @@
       <c r="F16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="4">
-        <v>45992</v>
+      <c r="G16" s="3">
+        <v>46016</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>109</v>
@@ -9992,8 +9992,8 @@
       <c r="F18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="4">
-        <v>45992</v>
+      <c r="G18" s="3">
+        <v>46016</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>109</v>
@@ -10030,8 +10030,8 @@
       <c r="F20" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="G20" s="4">
-        <v>45992</v>
+      <c r="G20" s="3">
+        <v>46016</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>109</v>
@@ -10068,8 +10068,8 @@
       <c r="F22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="4">
-        <v>45992</v>
+      <c r="G22" s="3">
+        <v>46016</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>109</v>
@@ -10106,8 +10106,8 @@
       <c r="F24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="4">
-        <v>45992</v>
+      <c r="G24" s="3">
+        <v>46016</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>109</v>
@@ -10144,8 +10144,8 @@
       <c r="F26" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G26" s="4">
-        <v>45992</v>
+      <c r="G26" s="3">
+        <v>46016</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>109</v>
@@ -10182,8 +10182,8 @@
       <c r="F28" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="4">
-        <v>45992</v>
+      <c r="G28" s="3">
+        <v>46016</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>109</v>
@@ -10220,8 +10220,8 @@
       <c r="F30" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G30" s="4">
-        <v>45992</v>
+      <c r="G30" s="3">
+        <v>46016</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>109</v>
@@ -10258,8 +10258,8 @@
       <c r="F32" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G32" s="4">
-        <v>45992</v>
+      <c r="G32" s="3">
+        <v>46016</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>109</v>
@@ -10296,8 +10296,8 @@
       <c r="F34" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="G34" s="4">
-        <v>45992</v>
+      <c r="G34" s="3">
+        <v>46016</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>109</v>
@@ -10334,8 +10334,8 @@
       <c r="F36" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="G36" s="4">
-        <v>45992</v>
+      <c r="G36" s="3">
+        <v>46016</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>109</v>
@@ -10372,8 +10372,8 @@
       <c r="F38" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="G38" s="4">
-        <v>45992</v>
+      <c r="G38" s="3">
+        <v>46016</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>109</v>
@@ -10410,8 +10410,8 @@
       <c r="F40" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="G40" s="4">
-        <v>45992</v>
+      <c r="G40" s="3">
+        <v>46016</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>109</v>
@@ -10448,8 +10448,8 @@
       <c r="F42" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="G42" s="4">
-        <v>45992</v>
+      <c r="G42" s="3">
+        <v>46016</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>109</v>
@@ -10501,8 +10501,8 @@
       <c r="F45" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="G45" s="4">
-        <v>45992</v>
+      <c r="G45" s="3">
+        <v>46016</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>109</v>
@@ -10948,8 +10948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B9A8E5-C2A7-4B04-BCDA-0A5EB24D8FBF}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView zoomScale="66" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -10960,7 +10960,7 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -11000,7 +11000,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3">
-        <v>45990</v>
+        <v>46015</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -11054,8 +11054,8 @@
       <c r="F9" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G9" s="4">
-        <v>45992</v>
+      <c r="G9" s="3">
+        <v>46016</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>109</v>
@@ -11105,8 +11105,8 @@
       <c r="F12" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="G12" s="4">
-        <v>45992</v>
+      <c r="G12" s="3">
+        <v>46016</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>109</v>
@@ -11156,8 +11156,8 @@
       <c r="F15" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="G15" s="4">
-        <v>45992</v>
+      <c r="G15" s="3">
+        <v>46016</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>109</v>
@@ -11207,8 +11207,8 @@
       <c r="F18" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="G18" s="4">
-        <v>45992</v>
+      <c r="G18" s="3">
+        <v>46016</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>109</v>
@@ -11245,8 +11245,8 @@
       <c r="F20" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="G20" s="4">
-        <v>45992</v>
+      <c r="G20" s="3">
+        <v>46016</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>109</v>
